--- a/___Cost_Analysis-Notas___/tareas/PlantillaParcial.xlsx
+++ b/___Cost_Analysis-Notas___/tareas/PlantillaParcial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A38F4D-B88B-4474-A1E7-98F9705ACF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA91ED6D-4AFF-4583-86C4-2466590BBA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuestos" sheetId="1" r:id="rId1"/>
@@ -61,30 +61,6 @@
           </rPr>
           <t xml:space="preserve">
 Lo dice el problema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{A96C08C6-FFA8-4FCB-9827-1B872D676427}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No hay nada que halar, será el 55% del mes siguiente</t>
         </r>
       </text>
     </comment>
@@ -217,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0" shapeId="0" xr:uid="{3160EAB5-62EB-4A0C-AFDB-43898E338D71}">
+    <comment ref="A77" authorId="0" shapeId="0" xr:uid="{3160EAB5-62EB-4A0C-AFDB-43898E338D71}">
       <text>
         <r>
           <rPr>
@@ -242,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{110A1F06-5A9E-44AA-98E9-4AD141A28927}">
+    <comment ref="D77" authorId="0" shapeId="0" xr:uid="{110A1F06-5A9E-44AA-98E9-4AD141A28927}">
       <text>
         <r>
           <rPr>
@@ -300,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{A04F1A9F-B184-4957-85BF-94E86653F7A1}">
+    <comment ref="F40" authorId="0" shapeId="0" xr:uid="{A04F1A9F-B184-4957-85BF-94E86653F7A1}">
       <text>
         <r>
           <rPr>
@@ -329,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="189">
   <si>
     <t>Presupuesto de ventas</t>
   </si>
@@ -637,9 +613,6 @@
     <t>Costos por HH de costos y gastos variables</t>
   </si>
   <si>
-    <t>Precio de compra de ese inventario</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enero </t>
   </si>
   <si>
@@ -697,18 +670,12 @@
     <t>*** por que agarrar el del mes siguiente</t>
   </si>
   <si>
-    <t>Empresa S.A.</t>
-  </si>
-  <si>
     <t>Derecho de llave</t>
   </si>
   <si>
     <t>Prestamos a largo plazo</t>
   </si>
   <si>
-    <t>Balance general al 31 de marzo de 2019</t>
-  </si>
-  <si>
     <t>ISR por pagar</t>
   </si>
   <si>
@@ -721,9 +688,6 @@
     <t>Saldo Final en caja</t>
   </si>
   <si>
-    <t>Maquinaria</t>
-  </si>
-  <si>
     <t>Prestamos</t>
   </si>
   <si>
@@ -755,6 +719,159 @@
   </si>
   <si>
     <t>Mes 3</t>
+  </si>
+  <si>
+    <t>la del proximo mes te la dan</t>
+  </si>
+  <si>
+    <t>Recordar cambiar porcentaje, siempre usar el round</t>
+  </si>
+  <si>
+    <t>siempre te dan el primer mes</t>
+  </si>
+  <si>
+    <t>te dan el primer mes</t>
+  </si>
+  <si>
+    <t>Recordar de cambiar el porcentaje, según el ejemplo</t>
+  </si>
+  <si>
+    <t>o te dan inicial de primer mes o dividis inventario material directo por valoracion de inv inicial</t>
+  </si>
+  <si>
+    <t>te lo dan, no necesariamente mismo costo por mes</t>
+  </si>
+  <si>
+    <t>TODO lo del presupuesto de MO te lo dan</t>
+  </si>
+  <si>
+    <t>lo halo de hh para procudir</t>
+  </si>
+  <si>
+    <t>NO QUITAR DEPRECIACIÓN</t>
+  </si>
+  <si>
+    <t>Inventario inicial deseado de el presupuesto de compra de mat. Dir</t>
+  </si>
+  <si>
+    <t>Primer mes fue diferente en este caso ya que es inventario inicial y ejemplo de un valor para inicial del primer mes</t>
+  </si>
+  <si>
+    <t>d63 tiene dif formula</t>
+  </si>
+  <si>
+    <t>Te dan el primer mes, sino es caja y bancos del balance general</t>
+  </si>
+  <si>
+    <t>Al contado principio del mes</t>
+  </si>
+  <si>
+    <t>presupuesto de cuentas por cobrar para ese mes</t>
+  </si>
+  <si>
+    <t>Presupuesto de cuentas por cobrar para ese mes</t>
+  </si>
+  <si>
+    <t>presupuesto mod</t>
+  </si>
+  <si>
+    <t>restar depreciaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otros gastos dependen de la info que te dan el mes en que ocurre, </t>
+  </si>
+  <si>
+    <t>se saca este de balance general ya que se cancelan todas las cuentas por pagar pendientes</t>
+  </si>
+  <si>
+    <t>ESTO DEPENDE DEL EJEMPLO, NO NECESARIAMENTE EXISTE ESTA CUENTA SIEMPRE</t>
+  </si>
+  <si>
+    <t>La diferencia de caja entonces se hace préstamo, como se hace en multiplos de mil se redondea a 91,000</t>
+  </si>
+  <si>
+    <t>Incluir meses antes y despues mientras q existan cuentas</t>
+  </si>
+  <si>
+    <t>Total de presupuesto en ventas</t>
+  </si>
+  <si>
+    <t>Te dan el porcentaje</t>
+  </si>
+  <si>
+    <t>Te dan porcentajes y en cuantos días se pagan.</t>
+  </si>
+  <si>
+    <t>Siempre incluir el siguiente mes/meses para proveedores (mientras que aun hayan cuentas originando del ultimo mes del ejemplo, Diciembre)</t>
+  </si>
+  <si>
+    <t>*** Los prestamos no son cuentas por pagar</t>
+  </si>
+  <si>
+    <t>*Proveedores</t>
+  </si>
+  <si>
+    <t>ES EL DEL ULTIMO MES</t>
+  </si>
+  <si>
+    <t>Ventas al credito que cobras en los siguientes meses despues de diciembre (hasta q se acabe lo q podas cobrar)</t>
+  </si>
+  <si>
+    <t>Valor de inventario final, ultimo mes</t>
+  </si>
+  <si>
+    <t>Inv final, costo material directo, ultimo mes</t>
+  </si>
+  <si>
+    <t>Copy paste del balance anterior, si hay una cuenta en el ejemplo se suma</t>
+  </si>
+  <si>
+    <t>5,000 que da el ejemplo, es acumulado por 3 meses</t>
+  </si>
+  <si>
+    <t>Incluye dep por Administracion, 3,500 por 3 meses</t>
+  </si>
+  <si>
+    <t>El total de cuentas por pagar los siguientes meses, mientras todavia hay para pagar, en este caso solo enero.</t>
+  </si>
+  <si>
+    <t>Prestamos socios</t>
+  </si>
+  <si>
+    <t>Prestamos bancarios</t>
+  </si>
+  <si>
+    <t>Total de pasivo corriente:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de pasivo no corriente: </t>
+  </si>
+  <si>
+    <t>Total de capital</t>
+  </si>
+  <si>
+    <t>REVISAR EL NOMBRE DE LAS CUENTAS</t>
+  </si>
+  <si>
+    <t>NO SIEMPRE EXISTEN CUENTAS AQUI, REVISAR</t>
+  </si>
+  <si>
+    <t>Este es trimestral, suma de tres meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferencia: </t>
+  </si>
+  <si>
+    <t>PONER NOMBRE</t>
+  </si>
+  <si>
+    <t>BALANCE GENERAL AL ____________________________________</t>
+  </si>
+  <si>
+    <t>Gastos anticipados</t>
+  </si>
+  <si>
+    <t>Vehículos</t>
   </si>
 </sst>
 </file>
@@ -766,7 +883,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +1004,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -902,7 +1026,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1377,11 +1501,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1480,6 +1613,11 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1525,10 +1663,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,6 +1678,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1547,15 +1691,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,12 +1708,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1594,11 +1723,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:L97"/>
+  <dimension ref="A6:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,13 +2053,16 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
@@ -1936,6 +2086,9 @@
       <c r="D9" s="44">
         <f>L10</f>
         <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -1998,6 +2151,9 @@
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2015,6 +2171,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2030,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -2042,12 +2201,12 @@
         <f t="shared" ref="C17:D17" si="1">C15+C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2062,11 +2221,11 @@
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
@@ -2083,8 +2242,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2251,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="36" t="str">
         <f>B8</f>
@@ -2106,8 +2265,11 @@
         <f t="shared" si="2"/>
         <v>Mes3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2123,19 +2285,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2151,8 +2313,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -2168,8 +2333,11 @@
         <f>ROUNDUP(0.55*216710,0)</f>
         <v>119191</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
@@ -2181,12 +2349,12 @@
         <f t="shared" ref="C27" si="5">C25+C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="125">
+      <c r="D27" s="87">
         <f>ROUNDUP(D25+D26,0)</f>
         <v>119191</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
@@ -2198,12 +2366,15 @@
         <f t="shared" ref="C28:D28" si="6">ROUNDUP(C23*0.55,0)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="126">
+      <c r="D28" s="88">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>13</v>
       </c>
@@ -2215,26 +2386,20 @@
         <f t="shared" ref="C29:D29" si="7">C27-C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="125">
+      <c r="D29" s="87">
         <f t="shared" si="7"/>
         <v>119191</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="49">
-        <v>44</v>
-      </c>
-      <c r="C30" s="49">
-        <v>44</v>
-      </c>
-      <c r="D30" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -2248,11 +2413,11 @@
       </c>
       <c r="D31" s="62">
         <f t="shared" si="8"/>
-        <v>5244404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2425,7 @@
       <c r="C33" s="39"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="36" t="str">
         <f>B8</f>
@@ -2273,7 +2438,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2290,21 +2455,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2321,21 +2480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="15">
-        <v>44</v>
-      </c>
-      <c r="C38" s="15">
-        <v>44</v>
-      </c>
-      <c r="D38" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
@@ -2352,16 +2505,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="36" t="str">
         <f>B8</f>
@@ -2376,7 +2532,7 @@
         <v>Mes3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2566,7 @@
         <v>0.85607800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2443,7 +2599,7 @@
         <v>3.5043519999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>21</v>
       </c>
@@ -2460,8 +2616,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>22</v>
       </c>
@@ -2469,7 +2625,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2485,8 +2641,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -2502,8 +2661,11 @@
         <f t="shared" si="17"/>
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>100</v>
       </c>
@@ -2520,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>29</v>
       </c>
@@ -2532,12 +2694,15 @@
         <f t="shared" ref="C53:D53" si="19">2500+1000+700+1500+700+950+600+750</f>
         <v>8700</v>
       </c>
-      <c r="D53" s="128">
+      <c r="D53" s="90">
         <f t="shared" si="19"/>
         <v>8700</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
@@ -2554,8 +2719,8 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
@@ -2563,7 +2728,7 @@
       <c r="C56" s="39"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="36" t="str">
         <f>B8</f>
@@ -2577,8 +2742,11 @@
         <f t="shared" si="21"/>
         <v>Mes3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -2594,22 +2762,19 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="15">
-        <v>44</v>
-      </c>
-      <c r="C59" s="15">
-        <v>44</v>
-      </c>
-      <c r="D59" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>23</v>
       </c>
@@ -2626,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -2640,10 +2805,10 @@
       </c>
       <c r="D61" s="10">
         <f t="shared" si="24"/>
-        <v>5244404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
@@ -2652,491 +2817,480 @@
         <v>0</v>
       </c>
       <c r="C62" s="51">
-        <f t="shared" ref="C62:D62" si="25">C60+C61</f>
+        <f>C60+C61</f>
         <v>0</v>
       </c>
       <c r="D62" s="16">
-        <f t="shared" si="25"/>
-        <v>5244404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C62:D62" si="25">D60+D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="36">
-        <f>B26</f>
+        <f>ROUND(C59*B28,0)</f>
         <v>0</v>
       </c>
       <c r="C63" s="36">
-        <f t="shared" ref="C63:D63" si="26">C26</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
+        <f t="shared" ref="C63:D63" si="26">ROUND(D59*C28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="36">
         <f t="shared" si="26"/>
-        <v>119191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="36">
-        <v>44</v>
-      </c>
-      <c r="C64" s="36">
-        <v>44</v>
-      </c>
-      <c r="D64" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="45">
-        <f>B62-B63*B64</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="45">
-        <f t="shared" ref="C65:D65" si="27">C62-C63*C64</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="9">
+      <c r="B64" s="45">
+        <f>B62-B63</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="45">
+        <f t="shared" ref="C64:D64" si="27">C62-C63</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="45">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="36" t="str">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="36" t="str">
         <f>B8</f>
         <v>Mes1</v>
       </c>
-      <c r="C68" s="36" t="str">
-        <f t="shared" ref="C68:D68" si="28">C8</f>
+      <c r="C67" s="36" t="str">
+        <f>C8</f>
         <v>Mes2</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D67" s="2" t="str">
+        <f>D8</f>
+        <v>Mes3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="15">
+        <f>B64</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="15">
+        <f t="shared" ref="C68:D68" si="28">C64</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="10">
         <f t="shared" si="28"/>
-        <v>Mes3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B69" s="15">
-        <f>B65</f>
+        <f>B47</f>
         <v>0</v>
       </c>
       <c r="C69" s="15">
-        <f t="shared" ref="C69:D69" si="29">C65</f>
+        <f>C47</f>
         <v>0</v>
       </c>
       <c r="D69" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B70" s="15">
-        <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="15">
-        <f t="shared" ref="C70:D70" si="30">C47</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="10">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="15">
         <f>B54</f>
         <v>8700</v>
       </c>
-      <c r="C71" s="15">
-        <f t="shared" ref="C71:D71" si="31">C54</f>
+      <c r="C70" s="15">
+        <f>C54</f>
         <v>8700</v>
       </c>
-      <c r="D71" s="10">
-        <f t="shared" si="31"/>
+      <c r="D70" s="10">
+        <f>D54</f>
         <v>8700</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="71" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="51">
-        <f>SUM(B69:B71)</f>
+      <c r="B71" s="51">
+        <f>SUM(B68:B70)</f>
         <v>8700</v>
       </c>
-      <c r="C72" s="51">
-        <f>SUM(C69:C71)</f>
+      <c r="C71" s="51">
+        <f>SUM(C68:C70)</f>
         <v>8700</v>
       </c>
-      <c r="D72" s="16">
-        <f>SUM(D69:D71)</f>
+      <c r="D71" s="16">
+        <f>SUM(D68:D70)</f>
         <v>8700</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="43">
+      <c r="B72" s="43">
         <f>B35</f>
         <v>0</v>
       </c>
-      <c r="C73" s="43">
-        <f t="shared" ref="C73:D73" si="32">C35</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="44">
+      <c r="C72" s="43">
+        <f>C35</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="44">
+        <f>D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="45" t="e">
+        <f>B71/B72</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C73" s="45" t="e">
+        <f t="shared" ref="C73:D73" si="29">C71/C72</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D73" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="36" t="str">
+        <f>B8</f>
+        <v>Mes1</v>
+      </c>
+      <c r="C76" s="36" t="str">
+        <f>C8</f>
+        <v>Mes2</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f>D8</f>
+        <v>Mes3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="15">
+        <f>ROUND(B18*47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="15" t="e">
+        <f>ROUND(C18*B73,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="15" t="e">
+        <f>ROUND(D18*C73,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="15">
+        <f>B71</f>
+        <v>8700</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" ref="C78" si="30">C71</f>
+        <v>8700</v>
+      </c>
+      <c r="D78" s="10">
+        <f>D71</f>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="51">
+        <f>B77+B78</f>
+        <v>8700</v>
+      </c>
+      <c r="C79" s="51" t="e">
+        <f>C77+C78</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D79" s="16" t="e">
+        <f>D77+D78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="86" t="e">
+        <f>B16*B73</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C80" s="15" t="e">
+        <f>ROUNDUP(C16*C73,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D80" s="10" t="e">
+        <f>ROUNDUP(D16*D73,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="45" t="e">
+        <f>B79-B80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C81" s="45" t="e">
+        <f>C79-C80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D81" s="9" t="e">
+        <f t="shared" ref="C81:D81" si="31">D79-D80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="93"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="36" t="str">
+        <f>B8</f>
+        <v>Mes1</v>
+      </c>
+      <c r="C85" s="36" t="str">
+        <f>C8</f>
+        <v>Mes2</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f>D8</f>
+        <v>Mes3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="15">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="15">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="10">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="15" t="e">
+        <f>B81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C87" s="15" t="e">
+        <f t="shared" ref="C87:D87" si="32">C81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D87" s="10" t="e">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="45" t="e">
-        <f>B72/B73</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C74" s="45" t="e">
-        <f t="shared" ref="C74:D74" si="33">C72/C73</f>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="51" t="e">
+        <f t="shared" ref="B88:C88" si="33">B86-B87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D74" s="9" t="e">
+      <c r="C88" s="51" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="36" t="str">
-        <f>B8</f>
-        <v>Mes1</v>
-      </c>
-      <c r="C77" s="36" t="str">
-        <f>C8</f>
-        <v>Mes2</v>
-      </c>
-      <c r="D77" s="2" t="str">
-        <f>D8</f>
-        <v>Mes3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="15">
-        <f>B18*47</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="15" t="e">
-        <f>C18*B74</f>
+      <c r="D88" s="16" t="e">
+        <f>D86-D87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D78" s="10" t="e">
-        <f>D18*C74</f>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="36">
+        <v>0</v>
+      </c>
+      <c r="C89" s="36">
+        <v>0</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="15">
+        <f>34000+6500+28000+2500+5000</f>
+        <v>76000</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" ref="C90:D90" si="34">34000+6500+28000+2500+5000</f>
+        <v>76000</v>
+      </c>
+      <c r="D90" s="10">
+        <f t="shared" si="34"/>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="15">
+        <f>B86*0.04+B86*0.02+B86*0.03+B86*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" ref="C91:D91" si="35">C86*0.04+C86*0.02+C86*0.03+C86*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="51" t="e">
+        <f>B88-SUM(B89:B91)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="15">
-        <f>B72</f>
-        <v>8700</v>
-      </c>
-      <c r="C79" s="15">
-        <f t="shared" ref="C79" si="34">C72</f>
-        <v>8700</v>
-      </c>
-      <c r="D79" s="10">
-        <f>D72</f>
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="51">
-        <f>B78+B79</f>
-        <v>8700</v>
-      </c>
-      <c r="C80" s="51" t="e">
-        <f t="shared" ref="C80:D80" si="35">C78+C79</f>
+      <c r="C92" s="51" t="e">
+        <f>C88-SUM(C89:C91)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D80" s="16" t="e">
-        <f t="shared" si="35"/>
+      <c r="D92" s="16" t="e">
+        <f>D88-SUM(D89:D91)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="124" t="e">
-        <f>B16*B74</f>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="15" t="e">
+        <f>B92*0.25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C81" s="15" t="e">
-        <f>ROUNDUP(C16*C74,0)</f>
+      <c r="C93" s="15" t="e">
+        <f t="shared" ref="C93:D93" si="36">C92*0.25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D81" s="10" t="e">
-        <f>ROUNDUP(D16*D74,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="45" t="e">
-        <f>B80-B81</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C82" s="45" t="e">
-        <f t="shared" ref="C82:D82" si="36">C80-C81</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D82" s="9" t="e">
+      <c r="D93" s="10" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="87"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="88"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="36" t="str">
-        <f>B8</f>
-        <v>Mes1</v>
-      </c>
-      <c r="C86" s="36" t="str">
-        <f t="shared" ref="C86:D86" si="37">C8</f>
-        <v>Mes2</v>
-      </c>
-      <c r="D86" s="2" t="str">
+    <row r="94" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="45" t="e">
+        <f>B92-B93</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C94" s="45" t="e">
+        <f t="shared" ref="C94:D94" si="37">C92-C93</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D94" s="9" t="e">
         <f t="shared" si="37"/>
-        <v>Mes3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="15">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="15">
-        <f t="shared" ref="C87:D87" si="38">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="10">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88" s="15" t="e">
-        <f>B82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C88" s="15" t="e">
-        <f t="shared" ref="C88:D88" si="39">C82</f>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="52" t="e">
+        <f>ROUNDUP(B80,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D88" s="10" t="e">
-        <f t="shared" si="39"/>
+      <c r="C96" s="52" t="e">
+        <f>ROUNDUP(C80,0)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="51" t="e">
-        <f t="shared" ref="B89:C89" si="40">B87-B88</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C89" s="51" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D89" s="16" t="e">
-        <f>D87-D88</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="36">
-        <v>0</v>
-      </c>
-      <c r="C90" s="36">
-        <v>0</v>
-      </c>
-      <c r="D90" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="15">
-        <f>34000+6500+28000+2500+5000</f>
-        <v>76000</v>
-      </c>
-      <c r="C91" s="15">
-        <f t="shared" ref="C91:D91" si="41">34000+6500+28000+2500+5000</f>
-        <v>76000</v>
-      </c>
-      <c r="D91" s="10">
-        <f t="shared" si="41"/>
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="15">
-        <f>B87*0.04+B87*0.02+B87*0.03+B87*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="15">
-        <f t="shared" ref="C92:D92" si="42">C87*0.04+C87*0.02+C87*0.03+C87*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="10">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" s="51" t="e">
-        <f>B89-SUM(B90:B92)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C93" s="51" t="e">
-        <f>C89-SUM(C90:C92)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D93" s="16" t="e">
-        <f>D89-SUM(D90:D92)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" s="15" t="e">
-        <f>B93*0.25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C94" s="15" t="e">
-        <f t="shared" ref="C94:D94" si="43">C93*0.25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D94" s="10" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="45" t="e">
-        <f>B93-B94</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C95" s="45" t="e">
-        <f t="shared" ref="C95:D95" si="44">C93-C94</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D95" s="9" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="52" t="e">
-        <f>ROUNDUP(B81,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C97" s="52" t="e">
-        <f t="shared" ref="C97:D97" si="45">ROUNDUP(C81,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D97" s="52" t="e">
-        <f t="shared" si="45"/>
+      <c r="D96" s="52" t="e">
+        <f>ROUNDUP(D80,0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A84:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3146,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E45AE-9F78-4F97-8AB3-5270D62F633D}">
-  <dimension ref="B1:M66"/>
+  <dimension ref="B1:O66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,57 +3311,64 @@
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="95" t="s">
+    <row r="1" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="65"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="89" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="2"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="36"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+    </row>
+    <row r="4" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="15">
         <f>510300</f>
@@ -3215,68 +3376,78 @@
       </c>
       <c r="D4" s="15">
         <f>C31</f>
-        <v>3175830</v>
+        <v>3173330</v>
       </c>
       <c r="E4" s="10" t="e">
         <f>D31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="K4" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>103</v>
-      </c>
       <c r="L4" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="2"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="15">
+      <c r="I5" s="15">
         <f>19880800</f>
         <v>19880800</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <f>20216000</f>
         <v>20216000</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <f>22960000</f>
         <v>22960000</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="15">
         <f>Presupuestos!B11</f>
         <v>0</v>
       </c>
-      <c r="L5" s="15">
+      <c r="M5" s="15">
         <f>Presupuestos!C11</f>
         <v>0</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <f>Presupuestos!D11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="O5" s="129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>51</v>
       </c>
@@ -3284,127 +3455,144 @@
       <c r="D6" s="53"/>
       <c r="E6" s="26"/>
       <c r="F6" s="58"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="58"/>
+      <c r="H6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="15">
-        <f>H5-H7</f>
+      <c r="I6" s="15">
+        <f>I5-I7</f>
         <v>12922520</v>
       </c>
-      <c r="I6" s="15">
-        <f t="shared" ref="I6:M6" si="0">I5-I7</f>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:N6" si="0">J5-J7</f>
         <v>13140400</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>14924000</v>
       </c>
-      <c r="K6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="15">
-        <f>H5*0.35</f>
+      <c r="I7" s="15">
+        <f>I5*0.35</f>
         <v>6958280</v>
       </c>
-      <c r="I7" s="15">
-        <f t="shared" ref="I7:M7" si="1">I5*0.35</f>
+      <c r="J7" s="15">
+        <f t="shared" ref="J7:N7" si="1">J5*0.35</f>
         <v>7075600</v>
       </c>
-      <c r="J7" s="15">
-        <f>J5*0.35</f>
+      <c r="K7" s="15">
+        <f>K5*0.35</f>
         <v>8035999.9999999991</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="15">
-        <f>K7</f>
+        <f>L7</f>
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <f>L7</f>
+        <f>M7</f>
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="36"/>
+        <f>N7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="36"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="66">
-        <f>K17</f>
+        <f>L17</f>
         <v>13977730</v>
       </c>
       <c r="D9" s="66">
-        <f>L17</f>
+        <f>M17</f>
         <v>7016100</v>
       </c>
       <c r="E9" s="69">
-        <f>M17</f>
+        <f>N17</f>
         <v>3731000</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="40"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>54</v>
       </c>
@@ -3420,52 +3608,56 @@
         <f>SUM(E8:E9)</f>
         <v>3731000</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15">
-        <f>H6*0.5</f>
+      <c r="F10" s="15"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <f>I6*0.5</f>
         <v>6461260</v>
       </c>
-      <c r="J10" s="15">
-        <f>H6*0.25</f>
+      <c r="K10" s="15">
+        <f>I6*0.25</f>
         <v>3230630</v>
       </c>
-      <c r="K10" s="15">
-        <f>H6*0.25</f>
+      <c r="L10" s="15">
+        <f>I6*0.25</f>
         <v>3230630</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="132"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="2"/>
       <c r="F11" s="36"/>
-      <c r="G11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="15"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="15">
-        <f>I6*0.5</f>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
+        <f>J6*0.5</f>
         <v>6570200</v>
       </c>
-      <c r="K11" s="15">
-        <f>I6*0.25</f>
+      <c r="L11" s="15">
+        <f>J6*0.25</f>
         <v>3285100</v>
       </c>
-      <c r="L11" s="15">
-        <f>I6*0.25</f>
+      <c r="M11" s="15">
+        <f>J6*0.25</f>
         <v>3285100</v>
       </c>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="10"/>
+      <c r="O11" s="132"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>55</v>
       </c>
@@ -3475,55 +3667,59 @@
       </c>
       <c r="D12" s="55">
         <f>D10+D4</f>
-        <v>10191930</v>
+        <v>10189430</v>
       </c>
       <c r="E12" s="23" t="e">
-        <f t="shared" ref="E12" si="2">E10+E4</f>
+        <f>E10+E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="15">
-        <f>J6*0.5</f>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
+        <f>K6*0.5</f>
         <v>7462000</v>
       </c>
-      <c r="L12" s="15">
-        <f>J6*0.25</f>
+      <c r="M12" s="15">
+        <f>K6*0.25</f>
         <v>3731000</v>
       </c>
-      <c r="M12" s="10">
-        <f>J6*0.25</f>
+      <c r="N12" s="10">
+        <f>K6*0.25</f>
         <v>3731000</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="132"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="2"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="15"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="15">
-        <f>K6*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <f>K6*0.25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15">
+        <f>L6*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <f>L6*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="132"/>
+    </row>
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>56</v>
       </c>
@@ -3531,117 +3727,125 @@
       <c r="D14" s="53"/>
       <c r="E14" s="26"/>
       <c r="F14" s="58"/>
-      <c r="G14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="15"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="10">
-        <f>L6*0.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="15"/>
+      <c r="N14" s="10">
+        <f>M6*0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="54" t="str">
         <f>C7</f>
         <v>Mes 1</v>
       </c>
       <c r="D15" s="54" t="str">
-        <f t="shared" ref="D15:E15" si="3">D7</f>
+        <f t="shared" ref="D15:E15" si="2">D7</f>
         <v>Mes 2</v>
       </c>
       <c r="E15" s="54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Mes 3</v>
       </c>
       <c r="F15" s="54"/>
-      <c r="G15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="15"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="15">
-        <f>H25</f>
+        <f>I25</f>
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <f>I25</f>
+        <f>J25</f>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f>J25</f>
-        <v>2097761.6</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="15"/>
+        <f>K25</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="15">
-        <f>H31</f>
+        <f>I31</f>
         <v>9980000</v>
       </c>
       <c r="D17" s="15">
-        <f>I31</f>
+        <f>J31</f>
         <v>0</v>
       </c>
       <c r="E17" s="10">
-        <f>J31</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="8" t="s">
+        <f>K31</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="60">
-        <f>SUM(H10:H16)</f>
-        <v>0</v>
-      </c>
       <c r="I17" s="60">
-        <f t="shared" ref="I17:M17" si="4">SUM(I10:I16)</f>
+        <f>SUM(I10:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="60">
+        <f t="shared" ref="J17:N17" si="3">SUM(J10:J16)</f>
         <v>6461260</v>
       </c>
-      <c r="J17" s="60">
-        <f t="shared" si="4"/>
+      <c r="K17" s="60">
+        <f t="shared" si="3"/>
         <v>9800830</v>
       </c>
-      <c r="K17" s="60">
-        <f>SUM(K10:K16)</f>
+      <c r="L17" s="60">
+        <f>SUM(L10:L16)</f>
         <v>13977730</v>
       </c>
-      <c r="L17" s="60">
-        <f t="shared" si="4"/>
+      <c r="M17" s="60">
+        <f t="shared" si="3"/>
         <v>7016100</v>
       </c>
-      <c r="M17" s="60">
-        <f t="shared" si="4"/>
+      <c r="N17" s="60">
+        <f t="shared" si="3"/>
         <v>3731000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
@@ -3657,185 +3861,206 @@
         <f>Presupuestos!D47</f>
         <v>0</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="15">
-        <f>Presupuestos!B54-2500</f>
-        <v>6200</v>
+        <f>Presupuestos!B54</f>
+        <v>8700</v>
       </c>
       <c r="D19" s="15">
-        <f>Presupuestos!C54-2500</f>
-        <v>6200</v>
+        <f>Presupuestos!C54</f>
+        <v>8700</v>
       </c>
       <c r="E19" s="10">
-        <f>Presupuestos!D54-2500</f>
-        <v>6200</v>
-      </c>
-      <c r="F19" s="36"/>
+        <f>Presupuestos!D54</f>
+        <v>8700</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="15">
-        <f>Presupuestos!B92</f>
+        <f>Presupuestos!B91</f>
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <f>Presupuestos!C92</f>
+        <f>Presupuestos!C91</f>
         <v>0</v>
       </c>
       <c r="E20" s="10">
-        <f>Presupuestos!D92</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="89" t="s">
+        <f>Presupuestos!D91</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="15">
-        <f>Presupuestos!B91</f>
+        <f>Presupuestos!B90</f>
         <v>76000</v>
       </c>
       <c r="D21" s="15">
-        <f>Presupuestos!C91</f>
+        <f>Presupuestos!C90</f>
         <v>76000</v>
       </c>
       <c r="E21" s="10">
-        <f>Presupuestos!D91</f>
+        <f>Presupuestos!D90</f>
         <v>76000</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="15"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+    </row>
+    <row r="22" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="68">
         <f>SUM(C16:C21)</f>
-        <v>10062200</v>
+        <v>10064700</v>
       </c>
       <c r="D22" s="68">
-        <f t="shared" ref="D22:E22" si="5">SUM(D16:D21)</f>
-        <v>82200</v>
+        <f t="shared" ref="D22:E22" si="4">SUM(D16:D21)</f>
+        <v>84700</v>
       </c>
       <c r="E22" s="25">
-        <f t="shared" si="5"/>
-        <v>2179961.6</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="54" t="s">
-        <v>103</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>84700</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="2"/>
       <c r="F23" s="36"/>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="36"/>
+      <c r="H23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="15">
+      <c r="I23" s="15">
         <f>Presupuestos!B31</f>
         <v>0</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="15">
         <f>Presupuestos!C31</f>
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="K23" s="10">
         <f>Presupuestos!D31</f>
-        <v>5244404</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="53" t="s">
+        <v>157</v>
+      </c>
       <c r="D24" s="53"/>
       <c r="E24" s="26"/>
       <c r="F24" s="58"/>
-      <c r="G24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="15">
-        <f>H23*0.6</f>
-        <v>0</v>
+      <c r="G24" s="58"/>
+      <c r="H24" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="I24" s="15">
-        <f t="shared" ref="I24:J24" si="6">I23*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="6"/>
-        <v>3146642.4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>I23*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" ref="J24:K24" si="5">J23*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="e">
-        <f>Presupuestos!B94</f>
+        <f>Presupuestos!B93</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="10" t="e">
-        <f>Presupuestos!C94</f>
+        <f>Presupuestos!C93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="61">
-        <f>H23*0.4</f>
-        <v>0</v>
+      <c r="F25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="I25" s="61">
-        <f t="shared" ref="I25:J25" si="7">I23*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="20">
-        <f t="shared" si="7"/>
-        <v>2097761.6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>I23*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="61">
+        <f t="shared" ref="J25:K25" si="6">J23*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -3843,15 +4068,16 @@
         <f>2500000</f>
         <v>2500000</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="36"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="36"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="15">
         <f>1250000</f>
@@ -3859,17 +4085,21 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="51">
+      <c r="I27" s="51">
         <v>9980000</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="51"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
@@ -3879,102 +4109,114 @@
         <v>152850</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15">
-        <f>H24</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15">
+        <f>I24</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="68">
         <f>SUM(C25:C28)+C22</f>
-        <v>11312200</v>
+        <v>11314700</v>
       </c>
       <c r="D29" s="68" t="e">
-        <f t="shared" ref="D29:E29" si="8">SUM(D25:D28)+D22</f>
+        <f t="shared" ref="D29:E29" si="7">SUM(D25:D28)+D22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="15"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I29" s="15"/>
-      <c r="J29" s="10">
-        <f>I24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="15"/>
+      <c r="K29" s="10">
+        <f>J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="2"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="15"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="I30" s="15"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="2:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J30" s="15"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="2:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="83">
         <f>C12-C29</f>
-        <v>3175830</v>
+        <v>3173330</v>
       </c>
       <c r="D31" s="83" t="e">
-        <f t="shared" ref="D31:E31" si="9">D12-D29</f>
+        <f t="shared" ref="D31:E31" si="8">D12-D29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="84" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="50">
+        <f>SUM(I27:I29)</f>
+        <v>9980000</v>
+      </c>
+      <c r="J31" s="50">
+        <f t="shared" ref="J31:K31" si="9">SUM(J27:J29)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="62">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="50">
-        <f>SUM(H27:H29)</f>
-        <v>9980000</v>
-      </c>
-      <c r="I31" s="50">
-        <f t="shared" ref="I31:J31" si="10">SUM(I27:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="76"/>
       <c r="C32" s="75"/>
       <c r="D32" s="75"/>
       <c r="E32" s="77"/>
-      <c r="F32" s="58"/>
+      <c r="F32" s="129" t="s">
+        <v>160</v>
+      </c>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
-    </row>
-    <row r="33" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -3982,13 +4224,14 @@
         <f>E25+200000-E31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="131"/>
       <c r="G33" s="58"/>
       <c r="H33" s="58"/>
-    </row>
-    <row r="34" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="79" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -3996,143 +4239,145 @@
         <f>E31+E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="36"/>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J38" s="36"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="59"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J39" s="59"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="36"/>
+      <c r="K39" s="59"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J40" s="36"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="15"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I42" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I43" s="36"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J43" s="36"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I44" s="36"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J44" s="36"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I45" s="36"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J45" s="36"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I46" s="36"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J46" s="36"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I47" s="15"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I48" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I49" s="15"/>
-      <c r="J49" s="57"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="15"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="15"/>
+      <c r="K49" s="57"/>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="57"/>
-      <c r="J52" s="36"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="36"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="57"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J53" s="36"/>
-    </row>
-    <row r="55" spans="6:10" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="63"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="55" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
-    </row>
-    <row r="56" spans="6:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F56" s="63"/>
+      <c r="I55" s="63"/>
+    </row>
+    <row r="56" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G56" s="63"/>
       <c r="H56" s="63"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F57" s="36"/>
+      <c r="I56" s="63"/>
+    </row>
+    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F58" s="36"/>
+      <c r="I57" s="36"/>
+    </row>
+    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F59" s="36"/>
+      <c r="I58" s="36"/>
+    </row>
+    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F60" s="36"/>
+      <c r="I59" s="36"/>
+    </row>
+    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F61" s="36"/>
+      <c r="I60" s="36"/>
+    </row>
+    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="36"/>
+      <c r="I61" s="36"/>
+    </row>
+    <row r="62" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F63" s="36"/>
+      <c r="I62" s="36"/>
+    </row>
+    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F64" s="36"/>
+      <c r="I63" s="36"/>
+    </row>
+    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="15"/>
-      <c r="G65" s="36"/>
+      <c r="I64" s="36"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="15"/>
       <c r="H65" s="36"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="59"/>
+      <c r="I65" s="36"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G66" s="59"/>
       <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="G20:J21"/>
+  <mergeCells count="4">
+    <mergeCell ref="H2:N3"/>
+    <mergeCell ref="H20:K21"/>
     <mergeCell ref="B1:E2"/>
+    <mergeCell ref="O9:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4141,10 +4386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B48C4A7-1F91-4E4B-ACCC-985CD571AEAD}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,62 +4405,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="A1" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="A2" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4306,12 +4551,12 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -4319,7 +4564,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -4328,18 +4573,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="103" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4407,7 +4652,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="15">
         <v>10000</v>
@@ -4441,21 +4686,21 @@
       <c r="A19" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="111">
         <f>SUM(D8+D18)</f>
         <v>44343072</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="124">
         <f>H9+H18+H11</f>
         <v>44343070</v>
       </c>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="38"/>
@@ -4471,58 +4716,58 @@
       <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
+      <c r="A23" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
+      <c r="A24" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="116"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4530,7 +4775,9 @@
         <f>'Caja,CxC,CxP'!E34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="129" t="s">
+        <v>168</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
         <v>92</v>
@@ -4539,321 +4786,371 @@
         <f>F5-'Caja,CxC,CxP'!D28</f>
         <v>100000</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="129" t="s">
+        <v>175</v>
+      </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="189" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="15">
         <v>25188800</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="133" t="s">
+        <v>169</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F28" s="15" t="e">
-        <f>Presupuestos!D94</f>
+        <f>Presupuestos!D93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="129" t="s">
+        <v>172</v>
+      </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="15" t="e">
-        <f>Presupuestos!D97</f>
+        <f>Presupuestos!D96</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="129" t="s">
+        <v>170</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="1" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="F29" s="15">
-        <f>'Caja,CxC,CxP'!F65</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="15"/>
+        <f>'Caja,CxC,CxP'!G65</f>
+        <v>0</v>
+      </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="15">
         <f>Presupuestos!D26*Presupuestos!D59</f>
-        <v>5244404</v>
+        <v>0</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="e">
         <f>SUM(B27:B30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="129" t="s">
+        <v>172</v>
+      </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="10" t="e">
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="10" t="e">
         <f>SUM(F27:F30)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="121"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="129" t="s">
+        <v>171</v>
+      </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="74">
-        <v>1250000</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="71"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="74" t="e">
-        <f>'Caja,CxC,CxP'!E33</f>
-        <v>#DIV/0!</v>
+        <v>122</v>
+      </c>
+      <c r="F34" s="74">
+        <v>1250000</v>
       </c>
       <c r="G34" s="56"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="10" t="e">
-        <f>F33+F34</f>
+      <c r="E35" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="74" t="e">
+        <f>'Caja,CxC,CxP'!E33</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="117" t="s">
+      <c r="G35" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="10" t="e">
+        <f>F34+F35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="103" t="s">
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B39" s="15">
         <f>832500</f>
         <v>832500</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="1" t="s">
+      <c r="C39" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F39" s="15">
         <v>25000000</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="G39" s="15"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B40" s="15">
         <f>B14+7500</f>
         <v>359500</v>
       </c>
-      <c r="C38" s="15">
-        <f>B37-B38</f>
+      <c r="C40" s="15">
+        <f>B39-B40</f>
         <v>473000</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="1" t="s">
+      <c r="D40" s="129" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F40" s="15">
         <v>6610220</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="G40" s="15"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B41" s="15">
         <f>B15</f>
         <v>95600</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="15" t="e">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="15" t="e">
         <f>Presupuestos!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B42" s="15">
         <f>B16</f>
         <v>95500</v>
       </c>
-      <c r="C40" s="15">
-        <f>B39-B40</f>
+      <c r="C42" s="15">
+        <f>B41-B42</f>
         <v>100</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15">
-        <v>10000</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15">
-        <v>2500000</v>
-      </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="129" t="s">
+        <v>174</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33">
-        <f>C38+C40+C41+C42</f>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33">
+        <f>C40+C42+C43+C44</f>
         <v>2983100</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34" t="e">
-        <f>SUM(F37:F41)</f>
+      <c r="E45" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34" t="e">
+        <f>SUM(F39:F43)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="101" t="e">
-        <f>D30+D43</f>
+      <c r="B46" s="111" t="e">
+        <f>D30+D45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="30" t="s">
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="122" t="e">
-        <f>H31+H35+H43</f>
+      <c r="F46" s="124" t="e">
+        <f>H32+H37+H45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="122"/>
-      <c r="H44" s="123"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="85" t="e">
-        <f>B44-F44</f>
+      <c r="G46" s="124"/>
+      <c r="H46" s="125"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="85" t="e">
+        <f>B46-F46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="136" t="e">
+        <f>B46-F46</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="F44:H44"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A2:H2"/>
@@ -4866,6 +5163,16 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="F46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
